--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1012.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1012.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.200750743759403</v>
+        <v>1.282299160957336</v>
       </c>
       <c r="B1">
-        <v>3.076720416633466</v>
+        <v>1.788605213165283</v>
       </c>
       <c r="C1">
-        <v>4.010473957141587</v>
+        <v>2.280906438827515</v>
       </c>
       <c r="D1">
-        <v>2.137937297941478</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.008761803112216</v>
+        <v>0.9588499069213867</v>
       </c>
     </row>
   </sheetData>
